--- a/RUDN/Importance/Varible_f_reg_in_Polynesia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Polynesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="250">
   <si>
     <t>F-value</t>
   </si>
@@ -22,6 +22,18 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
     <t>Population ages 55-59, male (% of male population)</t>
   </si>
   <si>
@@ -31,84 +43,87 @@
     <t>Population ages 50-54, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 55-59, female (% of female population)</t>
+  </si>
+  <si>
     <t>Female population 80+</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 55-59</t>
   </si>
   <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Male population 55-59</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+    <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 65 and above, female</t>
   </si>
   <si>
-    <t>Population ages 45-49, female (% of female population)</t>
-  </si>
-  <si>
     <t>Female population 50-54</t>
   </si>
   <si>
     <t>Population ages 65 and above, total</t>
   </si>
   <si>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Male population 75-79</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
+  </si>
+  <si>
+    <t>Female population 70-74</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
     <t>Female population 60-64</t>
   </si>
   <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Male population 50-54</t>
-  </si>
-  <si>
-    <t>Female population 70-74</t>
-  </si>
-  <si>
-    <t>Male population 75-79</t>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Female population 45-49</t>
+  </si>
+  <si>
+    <t>Male population 70-74</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
-    <t>Population ages 65 and above, male</t>
-  </si>
-  <si>
     <t>Male population 60-64</t>
   </si>
   <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 45-49</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 70-74</t>
+    <t>Female population 75-79</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
   </si>
   <si>
     <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
-    <t>Female population 75-79</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
-  </si>
-  <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
@@ -118,139 +133,163 @@
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Mobile cellular subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio, young</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
     <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
-  </si>
-  <si>
-    <t>Age dependency ratio, young</t>
-  </si>
-  <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>GDP per person employed (constant 2011 PPP $)</t>
+  </si>
+  <si>
+    <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Population ages 15-64, female</t>
   </si>
   <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Male population 40-44</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
+    <t>Age population, age 22, female, interpolated</t>
+  </si>
+  <si>
+    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 23, male, interpolated</t>
   </si>
   <si>
-    <t>GDP per person employed (constant 2011 PPP $)</t>
-  </si>
-  <si>
-    <t>Age dependency ratio (% of working-age population)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
+    <t>Population ages 15-64, male</t>
   </si>
   <si>
     <t>Male population 20-24</t>
   </si>
   <si>
-    <t>Population ages 05-09, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 22, female, interpolated</t>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
   </si>
   <si>
     <t>Age population, age 21, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 15-64 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
+    <t>Female population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 24, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 00-04, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
-  </si>
-  <si>
-    <t>Age population, age 24, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 00-04, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 21, female, interpolated</t>
-  </si>
-  <si>
-    <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
     <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 00-14, female (% of total)</t>
+    <t>Population ages 15-64, female (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
     <t>Population, female</t>
   </si>
   <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
     <t>Female population 25-29</t>
   </si>
   <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Urban population</t>
+  </si>
+  <si>
+    <t>Population ages 05-09, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Labor force, total</t>
+  </si>
+  <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Labor force, total</t>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
   </si>
   <si>
     <t>Population, male</t>
@@ -259,181 +298,208 @@
     <t>Male population 25-29</t>
   </si>
   <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population</t>
-  </si>
-  <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 05-09, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
   </si>
   <si>
     <t>Female population 35-39</t>
   </si>
   <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
     <t>Female population 30-34</t>
   </si>
   <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Inflation, consumer prices (annual %)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>GDP growth (annual %)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, private consumption (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Proportion of seats held by women in national parliaments (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
   </si>
   <si>
     <t>Age population, age 18, female, interpolated</t>
   </si>
   <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
     <t>Health expenditure, public (% of total health expenditure)</t>
   </si>
   <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Labor force, female</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
     <t>Age population, age 18, male, interpolated</t>
   </si>
   <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>GDP growth (annual %)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Proportion of seats held by women in national parliaments (%)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Labor force, female</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Male population 35-39</t>
   </si>
   <si>
     <t>Male population 30-34</t>
@@ -442,12 +508,30 @@
     <t>Female population 15-19</t>
   </si>
   <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
     <t>Age population, age 17, female, interpolated</t>
   </si>
   <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Urban population (% of total)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 17, male, interpolated</t>
+  </si>
+  <si>
     <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
   </si>
   <si>
@@ -457,120 +541,87 @@
     <t>Health expenditure per capita (current US$)</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
-  </si>
-  <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, private consumption (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Trade (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 17, male, interpolated</t>
-  </si>
-  <si>
-    <t>Urban population (% of total)</t>
-  </si>
-  <si>
-    <t>Rural population (% of total population)</t>
-  </si>
-  <si>
     <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+    <t>GNI per capita, PPP (current international $)</t>
+  </si>
+  <si>
+    <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
     <t>Population ages 65-69, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 16, male, interpolated</t>
-  </si>
-  <si>
     <t>Age population, age 15, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 70-74, male (% of male population)</t>
   </si>
   <si>
-    <t>GNI per capita, PPP (current international $)</t>
+    <t>Total debt service (% of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
   </si>
   <si>
     <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Total debt service (% of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 14, female, interpolated</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
     <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
     <t>Age population, age 13, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 14, male, interpolated</t>
   </si>
   <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Female population 10-14</t>
   </si>
   <si>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>GNI per capita, Atlas method (current US$)</t>
+  </si>
+  <si>
     <t>Age population, age 12, female, interpolated</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
     <t>Population ages 15-19, male (% of male population)</t>
   </si>
   <si>
-    <t>GNI per capita, Atlas method (current US$)</t>
-  </si>
-  <si>
     <t>Age population, age 13, male, interpolated</t>
   </si>
   <si>
@@ -583,31 +634,49 @@
     <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
     <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 35-39, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
     <t>Years</t>
   </si>
   <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
   </si>
   <si>
     <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
   </si>
   <si>
-    <t>Age population, age 09, female, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
+    <t>Births attended by skilled health staff (% of total)</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Gross capital formation (% of GDP)</t>
+  </si>
+  <si>
+    <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
     <t>Age population, age 11, male, interpolated</t>
@@ -616,76 +685,73 @@
     <t>Age population, age 08, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 35-39, female (% of female population)</t>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 07, female, interpolated</t>
+  </si>
+  <si>
+    <t>Female population 05-09</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
+  </si>
+  <si>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 65 and above (% of total)</t>
   </si>
   <si>
-    <t>Gross capital formation (% of GDP)</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
-  </si>
-  <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Age population, age 07, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Births attended by skilled health staff (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 35-39, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
   </si>
   <si>
     <t>Population ages 00-14, total</t>
   </si>
   <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Population ages 30-34, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Sex ratio at birth (male births per female births)</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Age population, age 07, male, interpolated</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
-  </si>
-  <si>
-    <t>Age population, age 07, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 75-79, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 70-74, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
+    <t>Population ages 30-34, male (% of male population)</t>
   </si>
   <si>
     <t>Age population, age 06, male, interpolated</t>
@@ -694,19 +760,10 @@
     <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
-    <t>Population ages 30-34, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 25-29, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 30-34, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 03, female, interpolated</t>
+    <t>GNI, Atlas method (current US$)</t>
+  </si>
+  <si>
+    <t>GDP (current US$)</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1121,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C230"/>
+  <dimension ref="A1:C249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1083,7 +1140,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>401.8742459166992</v>
+        <v>4684.473628945882</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1094,7 +1151,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>333.0430729766348</v>
+        <v>1554.128019117231</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1105,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>299.2163527141978</v>
+        <v>698.7789132595481</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1116,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>262.6276325479039</v>
+        <v>612.9696837251358</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1127,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>251.9717908595561</v>
+        <v>387.2551987669617</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1138,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>234.9259681984546</v>
+        <v>332.7329926013035</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1149,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>222.0588281342002</v>
+        <v>299.7770887821034</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1160,7 +1217,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>208.6203247912981</v>
+        <v>251.710720993817</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1171,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>203.9687001600412</v>
+        <v>232.3712556853543</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1182,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>186.7316968353779</v>
+        <v>216.6246480474564</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1193,7 +1250,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>176.1508310863641</v>
+        <v>203.7261667746967</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1204,7 +1261,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>173.8930529866613</v>
+        <v>203.5937325769005</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1215,7 +1272,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>165.0109616299852</v>
+        <v>196.6421703040953</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1226,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>161.7035850692537</v>
+        <v>177.0423131506078</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1237,7 +1294,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>161.0846504372135</v>
+        <v>174.031088709245</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1248,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>159.0865517732511</v>
+        <v>165.1758063716964</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1259,7 +1316,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>156.989072801519</v>
+        <v>156.2197396126999</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1270,7 +1327,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>156.7480679793454</v>
+        <v>153.1228104410443</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1281,7 +1338,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>146.5198659625584</v>
+        <v>151.8785932105414</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1292,7 +1349,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>144.6520754161772</v>
+        <v>150.8727877713781</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1303,7 +1360,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>141.5539146701618</v>
+        <v>147.9893272563539</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1314,7 +1371,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>140.7167997918868</v>
+        <v>146.0152675762065</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1325,7 +1382,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>140.2966710925026</v>
+        <v>145.6683678488401</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1336,7 +1393,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>139.0819327756258</v>
+        <v>138.7949535918117</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1347,7 +1404,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>136.4272216609029</v>
+        <v>135.3505523030516</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1358,7 +1415,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>136.2698825055657</v>
+        <v>134.478155054661</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1369,7 +1426,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>132.6149566441599</v>
+        <v>133.8192107047433</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1380,7 +1437,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>132.1577582407753</v>
+        <v>130.7916860670933</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1391,7 +1448,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>128.5208140679936</v>
+        <v>128.0429205059407</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1402,7 +1459,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>118.681856491336</v>
+        <v>126.8347891427541</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1413,7 +1470,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>112.8175862315121</v>
+        <v>126.649592938022</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1424,7 +1481,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>111.7025250018791</v>
+        <v>121.3616950458344</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1435,7 +1492,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>110.1820468412309</v>
+        <v>120.0036057690271</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1446,7 +1503,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>109.2752052090864</v>
+        <v>119.8024912614372</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1457,7 +1514,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>104.9983585988803</v>
+        <v>116.1162445639558</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1468,7 +1525,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>104.7819527828759</v>
+        <v>111.8586134687641</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1479,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>104.7819527828759</v>
+        <v>109.4379970595411</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1490,7 +1547,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>104.4396056711715</v>
+        <v>109.1896477478173</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1501,7 +1558,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>104.0367424301129</v>
+        <v>103.7795133743119</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1512,7 +1569,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>104.0367424301129</v>
+        <v>103.4876059834432</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1523,7 +1580,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>102.3783601561869</v>
+        <v>103.1167830115806</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1534,7 +1591,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>102.093298826911</v>
+        <v>103.0426574286777</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1545,7 +1602,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>101.1529291126</v>
+        <v>103.0426574286777</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1556,7 +1613,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>100.6344823933167</v>
+        <v>101.8668222137102</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1567,7 +1624,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>99.16862837638018</v>
+        <v>100.9670624854173</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1578,7 +1635,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>99.11769615135037</v>
+        <v>100.9670624854173</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1589,7 +1646,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>98.50058592388612</v>
+        <v>99.08788559075143</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1600,7 +1657,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>98.31584394822102</v>
+        <v>97.97774246939545</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1611,7 +1668,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>98.07733296014968</v>
+        <v>96.66864981693331</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1622,7 +1679,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>97.70034572662105</v>
+        <v>96.57221066408079</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1633,7 +1690,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>97.30043892588282</v>
+        <v>95.83965637264447</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1644,7 +1701,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>96.36592604248193</v>
+        <v>95.49740948911912</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1655,7 +1712,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>96.27774581426092</v>
+        <v>94.7929824442456</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1666,7 +1723,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>95.78338967181932</v>
+        <v>94.23047538014478</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1677,7 +1734,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>95.65005168425607</v>
+        <v>92.93180728507174</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1688,7 +1745,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>95.05085443617931</v>
+        <v>92.05047861702197</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1699,7 +1756,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>94.85351927071369</v>
+        <v>91.93669887493185</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1710,7 +1767,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>94.66251138573233</v>
+        <v>91.67509575897557</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1721,7 +1778,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>93.07123505184323</v>
+        <v>90.66453746834335</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1732,7 +1789,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>92.66024302664167</v>
+        <v>90.45768086704474</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1743,7 +1800,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>92.14759950920649</v>
+        <v>90.00272675465935</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1754,7 +1811,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>91.53382445975384</v>
+        <v>89.93323007027956</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1765,7 +1822,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>91.51155598086348</v>
+        <v>89.78167535577406</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1776,7 +1833,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>90.61625357336025</v>
+        <v>89.33026726147095</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1787,7 +1844,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>90.61625357336025</v>
+        <v>89.06332794531301</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1798,7 +1855,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>89.82873441499979</v>
+        <v>88.5505310226887</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1809,7 +1866,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>89.56992039251276</v>
+        <v>88.5505310226887</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1820,7 +1877,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>88.12576547104784</v>
+        <v>88.474371220008</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1831,7 +1888,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>87.7743402127996</v>
+        <v>88.43922943724488</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1842,7 +1899,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>85.52763565164405</v>
+        <v>87.08654580494347</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1853,7 +1910,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>83.28137192887797</v>
+        <v>87.01787986493248</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1864,7 +1921,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>83.2244648483003</v>
+        <v>86.78942766469157</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1875,7 +1932,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>83.0405335421556</v>
+        <v>86.75943909211018</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1886,7 +1943,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>80.09039182329209</v>
+        <v>84.56834837899299</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -1897,7 +1954,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>78.59802177006533</v>
+        <v>83.12384423474752</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -1908,7 +1965,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>78.15265684963926</v>
+        <v>80.21315822124625</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -1919,7 +1976,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>73.79941659677833</v>
+        <v>79.68020379897914</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -1930,7 +1987,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>73.77437964790927</v>
+        <v>78.92835741427419</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -1941,7 +1998,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>73.48602718674543</v>
+        <v>78.04173602680092</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -1952,7 +2009,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>72.85797676244174</v>
+        <v>76.14459647337458</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -1963,7 +2020,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>72.70336316013083</v>
+        <v>75.47903801951432</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -1974,7 +2031,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>72.63039394446085</v>
+        <v>74.68048035391926</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -1985,7 +2042,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>70.03451239404099</v>
+        <v>73.36537173584846</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -1996,7 +2053,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>66.37475090257026</v>
+        <v>73.30954654199176</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2007,7 +2064,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>64.30630878212541</v>
+        <v>72.50196314455245</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2018,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>63.58063545960705</v>
+        <v>72.17365668188249</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2029,7 +2086,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>63.1537594296185</v>
+        <v>71.97227925093036</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2040,7 +2097,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>63.1537594296185</v>
+        <v>71.48256776556616</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2051,7 +2108,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>62.60132140806454</v>
+        <v>69.17134880846581</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2062,7 +2119,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>62.49471577922205</v>
+        <v>68.26649543603051</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2073,7 +2130,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>62.49471577922205</v>
+        <v>67.33830299198742</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2084,7 +2141,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>62.46337219586185</v>
+        <v>67.20151598689205</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2095,7 +2152,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>61.8457224274749</v>
+        <v>64.4796598436462</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2106,7 +2163,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>61.82027422139533</v>
+        <v>63.63903916569034</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2117,7 +2174,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>61.67010121438813</v>
+        <v>63.63903916569034</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2128,7 +2185,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>61.53872224845298</v>
+        <v>63.02013599650468</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2139,7 +2196,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>61.38157184041523</v>
+        <v>62.98399538630903</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2150,7 +2207,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>61.20520238090577</v>
+        <v>62.98399538630903</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2161,7 +2218,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>61.19066851840004</v>
+        <v>61.53302940139911</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2172,7 +2229,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>61.18271005259651</v>
+        <v>61.41234933042109</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2183,7 +2240,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>61.07045645331388</v>
+        <v>61.21027047715438</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2194,7 +2251,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>61.05131107395597</v>
+        <v>61.19448286943296</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2205,7 +2262,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>60.92393189338438</v>
+        <v>61.11851652525129</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2216,7 +2273,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>60.91375443644906</v>
+        <v>60.92417723939848</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2227,7 +2284,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>60.90115417019908</v>
+        <v>60.81164999598555</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2238,7 +2295,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>60.78485266650262</v>
+        <v>60.68813489737856</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2249,7 +2306,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>60.7322866616571</v>
+        <v>60.63697678231507</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2260,7 +2317,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>60.72787722941414</v>
+        <v>60.56305778613843</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2271,7 +2328,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>60.59202167018127</v>
+        <v>60.46433963774617</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2282,7 +2339,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>59.97862661249761</v>
+        <v>60.45229378150984</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2293,7 +2350,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>59.92280138062262</v>
+        <v>60.35722680943061</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2304,7 +2361,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>59.8610413452076</v>
+        <v>60.29897658755947</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2315,7 +2372,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>59.8610413452076</v>
+        <v>60.29897658755947</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2326,7 +2383,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>59.61382146916948</v>
+        <v>60.21620880182869</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2337,7 +2394,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>59.58214031789243</v>
+        <v>60.2065466850903</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2348,7 +2405,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>59.56582904934096</v>
+        <v>60.20485783945839</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2359,7 +2416,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>59.56582904934096</v>
+        <v>60.15460742920621</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2370,7 +2427,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>59.51822370289399</v>
+        <v>60.15460742920621</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2381,7 +2438,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>59.4665212525041</v>
+        <v>60.11241011855803</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2392,7 +2449,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>59.29613430109715</v>
+        <v>60.08093061473495</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2403,7 +2460,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>59.12353854430563</v>
+        <v>60.01599839492742</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2414,7 +2471,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>59.10390794213189</v>
+        <v>60.01368212207394</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2425,7 +2482,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>59.04374417092836</v>
+        <v>60.01285904938328</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2436,7 +2493,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>58.96631480993108</v>
+        <v>59.99638481619201</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2447,7 +2504,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>58.93996940262265</v>
+        <v>59.98800993923333</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2458,7 +2515,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>58.88366165418919</v>
+        <v>59.98800807373295</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2469,7 +2526,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>58.8587201046013</v>
+        <v>59.98389606199454</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2480,7 +2537,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>58.84657718822173</v>
+        <v>59.96939575616777</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2491,7 +2548,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>58.67994497231145</v>
+        <v>59.96105924577414</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2502,7 +2559,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>58.67469444249318</v>
+        <v>59.96105924577414</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2513,7 +2570,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>58.66969536819752</v>
+        <v>59.9454709360335</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2524,7 +2581,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>58.4514076465061</v>
+        <v>59.93334157540775</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2535,7 +2592,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>58.4448508223153</v>
+        <v>59.88975355679928</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2546,7 +2603,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>58.34807985176656</v>
+        <v>59.87669846899949</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2557,7 +2614,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>58.33923519086194</v>
+        <v>59.83820453217763</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2568,7 +2625,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>58.33346507897801</v>
+        <v>59.79589237808538</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2579,7 +2636,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>58.0283948057216</v>
+        <v>59.76986503220203</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2590,7 +2647,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>57.57597513446208</v>
+        <v>59.62908714146938</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2601,7 +2658,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>54.24416917859492</v>
+        <v>59.59963397849423</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2612,7 +2669,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>54.0118169277465</v>
+        <v>59.59510533062912</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2623,7 +2680,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>53.73785325214176</v>
+        <v>59.48988754765453</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2634,7 +2691,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>53.00092484311384</v>
+        <v>59.4324456069567</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2645,7 +2702,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>51.53161375348793</v>
+        <v>59.37454682006286</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2656,7 +2713,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>51.53161375348793</v>
+        <v>59.37153432594977</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2667,7 +2724,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>50.81456585299907</v>
+        <v>59.36416480701907</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2678,7 +2735,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>50.08250208865888</v>
+        <v>59.35684914645867</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2689,7 +2746,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>49.57341192543721</v>
+        <v>59.24689162185142</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2700,7 +2757,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>49.42281435345101</v>
+        <v>59.23908977135356</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2711,7 +2768,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>48.88158254750022</v>
+        <v>59.2115016821456</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2722,7 +2779,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>48.80320117491985</v>
+        <v>59.16830993458265</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2733,7 +2790,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>48.62571460836794</v>
+        <v>59.12212420244015</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2744,7 +2801,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>48.62571460836554</v>
+        <v>59.00917445936164</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2755,7 +2812,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>48.25951275777444</v>
+        <v>58.7929608084528</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2766,7 +2823,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>46.47493721703278</v>
+        <v>58.73792508062271</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2777,7 +2834,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>45.97391295087917</v>
+        <v>58.37402805024428</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2788,7 +2845,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>45.92560985866995</v>
+        <v>57.88327813573458</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2799,7 +2856,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>45.87318345112752</v>
+        <v>56.66759571161907</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2810,7 +2867,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>45.70122996944772</v>
+        <v>55.53738024595789</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2821,7 +2878,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>45.6479054582346</v>
+        <v>55.25280699514779</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2832,7 +2889,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>44.92547046007063</v>
+        <v>52.63574192597888</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2843,7 +2900,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>43.84719329685378</v>
+        <v>51.86445738156248</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2854,7 +2911,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>41.33178899527915</v>
+        <v>50.77825822420765</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2865,7 +2922,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>39.65711721684916</v>
+        <v>49.94105367755248</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2876,7 +2933,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>38.60772040736685</v>
+        <v>49.92977994020346</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2887,7 +2944,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>36.51738280254492</v>
+        <v>49.72948577579081</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -2898,7 +2955,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>35.95204008856338</v>
+        <v>49.7294857757792</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -2909,7 +2966,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>35.08525381473276</v>
+        <v>49.547803079003</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -2920,7 +2977,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>34.75252910988672</v>
+        <v>47.21841231793766</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -2931,7 +2988,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>34.75240150801797</v>
+        <v>46.80169504310382</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -2942,7 +2999,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>34.60815539857057</v>
+        <v>46.22055326838879</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -2953,7 +3010,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>33.65698595875881</v>
+        <v>46.13011166744851</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -2964,7 +3021,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>33.62708545567629</v>
+        <v>46.13011166744851</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -2975,7 +3032,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>33.03600350020467</v>
+        <v>45.69672139783987</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -2986,7 +3043,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>32.74398533435468</v>
+        <v>44.40813299681099</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -2997,7 +3054,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>32.66657349072351</v>
+        <v>42.64211244515474</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3008,7 +3065,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>31.86949762023499</v>
+        <v>41.99942278547984</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3019,7 +3076,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>29.36308690013949</v>
+        <v>37.81187131942725</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3030,10 +3087,10 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>27.29942974846544</v>
+        <v>37.52094075087544</v>
       </c>
       <c r="C179">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:3">
@@ -3041,10 +3098,10 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>26.30921521066695</v>
+        <v>35.85995466207199</v>
       </c>
       <c r="C180">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:3">
@@ -3052,10 +3109,10 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>25.58654831978982</v>
+        <v>35.72229907993556</v>
       </c>
       <c r="C181">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -3063,10 +3120,10 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>24.79349617074449</v>
+        <v>32.86671317892306</v>
       </c>
       <c r="C182">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:3">
@@ -3074,10 +3131,10 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>24.55163705683287</v>
+        <v>32.66165331206788</v>
       </c>
       <c r="C183">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:3">
@@ -3085,10 +3142,10 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>23.8352549903935</v>
+        <v>32.6615187462615</v>
       </c>
       <c r="C184">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -3096,10 +3153,10 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>22.9270392028167</v>
+        <v>32.54458438169235</v>
       </c>
       <c r="C185">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:3">
@@ -3107,10 +3164,10 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>22.47821171404787</v>
+        <v>31.90113788387789</v>
       </c>
       <c r="C186">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:3">
@@ -3118,10 +3175,10 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>20.11289414599574</v>
+        <v>30.75059829153774</v>
       </c>
       <c r="C187">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -3129,10 +3186,10 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>19.9655594157044</v>
+        <v>30.74496239222668</v>
       </c>
       <c r="C188">
-        <v>6e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:3">
@@ -3140,10 +3197,10 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>19.34776736371336</v>
+        <v>29.75832471955002</v>
       </c>
       <c r="C189">
-        <v>8.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:3">
@@ -3151,10 +3208,10 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>18.47783518875478</v>
+        <v>29.73779413448015</v>
       </c>
       <c r="C190">
-        <v>0.00011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -3162,10 +3219,10 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>17.95780344059014</v>
+        <v>29.22167498249356</v>
       </c>
       <c r="C191">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:3">
@@ -3173,10 +3230,10 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>17.88782911063942</v>
+        <v>29.0096089084249</v>
       </c>
       <c r="C192">
-        <v>0.00013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:3">
@@ -3184,10 +3241,10 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>17.86916868587809</v>
+        <v>27.94810932572478</v>
       </c>
       <c r="C193">
-        <v>0.00013</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -3195,10 +3252,10 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>17.86111206216995</v>
+        <v>26.60662261558103</v>
       </c>
       <c r="C194">
-        <v>0.00013</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="195" spans="1:3">
@@ -3206,10 +3263,10 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>17.84995483912311</v>
+        <v>25.52451888950912</v>
       </c>
       <c r="C195">
-        <v>0.00013</v>
+        <v>1e-05</v>
       </c>
     </row>
     <row r="196" spans="1:3">
@@ -3217,10 +3274,10 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>17.84967603057885</v>
+        <v>24.17406216609282</v>
       </c>
       <c r="C196">
-        <v>0.00013</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -3228,10 +3285,10 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>17.82955498521546</v>
+        <v>23.91523718444541</v>
       </c>
       <c r="C197">
-        <v>0.00014</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="198" spans="1:3">
@@ -3239,10 +3296,10 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>16.62601203643555</v>
+        <v>23.8813585708542</v>
       </c>
       <c r="C198">
-        <v>0.00021</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="199" spans="1:3">
@@ -3250,10 +3307,10 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>15.8989276420055</v>
+        <v>23.84679024492564</v>
       </c>
       <c r="C199">
-        <v>0.00028</v>
+        <v>2e-05</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -3261,10 +3318,10 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>15.88889346118627</v>
+        <v>23.1304811490107</v>
       </c>
       <c r="C200">
-        <v>0.00028</v>
+        <v>3e-05</v>
       </c>
     </row>
     <row r="201" spans="1:3">
@@ -3272,10 +3329,10 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>15.29836480275751</v>
+        <v>21.30933163171699</v>
       </c>
       <c r="C201">
-        <v>0.00035</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="202" spans="1:3">
@@ -3283,10 +3340,10 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>14.87757610707633</v>
+        <v>21.23956264609257</v>
       </c>
       <c r="C202">
-        <v>0.00041</v>
+        <v>5e-05</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -3294,10 +3351,10 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>14.5684840352189</v>
+        <v>20.40983084995985</v>
       </c>
       <c r="C203">
-        <v>0.00046</v>
+        <v>6e-05</v>
       </c>
     </row>
     <row r="204" spans="1:3">
@@ -3305,10 +3362,10 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>14.42110237254004</v>
+        <v>18.48540781372109</v>
       </c>
       <c r="C204">
-        <v>0.00049</v>
+        <v>0.00012</v>
       </c>
     </row>
     <row r="205" spans="1:3">
@@ -3316,10 +3373,10 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>14.05524779872503</v>
+        <v>18.2450655496629</v>
       </c>
       <c r="C205">
-        <v>0.00056</v>
+        <v>0.00013</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -3327,10 +3384,10 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>14.02886377451985</v>
+        <v>18.10784564125461</v>
       </c>
       <c r="C206">
-        <v>0.00057</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="207" spans="1:3">
@@ -3338,10 +3395,10 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>14.01130836127875</v>
+        <v>18.01981019279547</v>
       </c>
       <c r="C207">
-        <v>0.00057</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="208" spans="1:3">
@@ -3349,10 +3406,10 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>13.52594515417783</v>
+        <v>17.9576633823721</v>
       </c>
       <c r="C208">
-        <v>0.00069</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -3360,10 +3417,10 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>13.51182481039842</v>
+        <v>17.95733237839509</v>
       </c>
       <c r="C209">
-        <v>0.0007</v>
+        <v>0.00014</v>
       </c>
     </row>
     <row r="210" spans="1:3">
@@ -3371,10 +3428,10 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>12.89246442502327</v>
+        <v>17.93294473993456</v>
       </c>
       <c r="C210">
-        <v>0.0008899999999999999</v>
+        <v>0.00015</v>
       </c>
     </row>
     <row r="211" spans="1:3">
@@ -3382,10 +3439,10 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>12.2958658610441</v>
+        <v>17.73932726037348</v>
       </c>
       <c r="C211">
-        <v>0.00114</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -3393,10 +3450,10 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>12.27987751097546</v>
+        <v>17.68392265979387</v>
       </c>
       <c r="C212">
-        <v>0.00114</v>
+        <v>0.00016</v>
       </c>
     </row>
     <row r="213" spans="1:3">
@@ -3404,10 +3461,10 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>11.59125424923408</v>
+        <v>16.44327905371151</v>
       </c>
       <c r="C213">
-        <v>0.00152</v>
+        <v>0.00025</v>
       </c>
     </row>
     <row r="214" spans="1:3">
@@ -3415,10 +3472,10 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>11.47275044617734</v>
+        <v>16.29336613333756</v>
       </c>
       <c r="C214">
-        <v>0.0016</v>
+        <v>0.00026</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -3426,10 +3483,10 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>10.80726592140907</v>
+        <v>16.00656777959136</v>
       </c>
       <c r="C215">
-        <v>0.00211</v>
+        <v>0.00029</v>
       </c>
     </row>
     <row r="216" spans="1:3">
@@ -3437,10 +3494,10 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>10.78740552221783</v>
+        <v>15.75973163748926</v>
       </c>
       <c r="C216">
-        <v>0.00213</v>
+        <v>0.00032</v>
       </c>
     </row>
     <row r="217" spans="1:3">
@@ -3448,10 +3505,10 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>10.62962954603809</v>
+        <v>15.59503412782419</v>
       </c>
       <c r="C217">
-        <v>0.00228</v>
+        <v>0.00034</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -3459,10 +3516,10 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>10.27425659650804</v>
+        <v>15.52884154126348</v>
       </c>
       <c r="C218">
-        <v>0.00265</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="219" spans="1:3">
@@ -3470,10 +3527,10 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>10.19632529966737</v>
+        <v>15.49927432801961</v>
       </c>
       <c r="C219">
-        <v>0.00274</v>
+        <v>0.00035</v>
       </c>
     </row>
     <row r="220" spans="1:3">
@@ -3481,10 +3538,10 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>10.00111532577506</v>
+        <v>15.29513606121792</v>
       </c>
       <c r="C220">
-        <v>0.00298</v>
+        <v>0.00038</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -3492,10 +3549,10 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>9.636909756013281</v>
+        <v>15.12034578292292</v>
       </c>
       <c r="C221">
-        <v>0.0035</v>
+        <v>0.0004</v>
       </c>
     </row>
     <row r="222" spans="1:3">
@@ -3503,10 +3560,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>9.513669166742133</v>
+        <v>14.70903354914689</v>
       </c>
       <c r="C222">
-        <v>0.00369</v>
+        <v>0.00047</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3514,10 +3571,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>9.3231214144035</v>
+        <v>13.19860600025991</v>
       </c>
       <c r="C223">
-        <v>0.00401</v>
+        <v>0.00084</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3525,10 +3582,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>9.066672990747239</v>
+        <v>13.00295011493706</v>
       </c>
       <c r="C224">
-        <v>0.00449</v>
+        <v>0.00091</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3536,10 +3593,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>8.97600380695528</v>
+        <v>12.91404857068734</v>
       </c>
       <c r="C225">
-        <v>0.00468</v>
+        <v>0.00095</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3547,10 +3604,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>8.908988498111077</v>
+        <v>12.5403378991765</v>
       </c>
       <c r="C226">
-        <v>0.00482</v>
+        <v>0.0011</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3558,10 +3615,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>8.041660585309828</v>
+        <v>12.00581105388826</v>
       </c>
       <c r="C227">
-        <v>0.00714</v>
+        <v>0.00136</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3569,10 +3626,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>7.523093296858963</v>
+        <v>11.65774308082067</v>
       </c>
       <c r="C228">
-        <v>0.00907</v>
+        <v>0.00156</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3580,10 +3637,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>7.449565031276681</v>
+        <v>11.30626160172902</v>
       </c>
       <c r="C229">
-        <v>0.009390000000000001</v>
+        <v>0.00181</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3591,10 +3648,219 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>7.33093486321123</v>
+        <v>11.26256630339189</v>
       </c>
       <c r="C230">
-        <v>0.00992</v>
+        <v>0.00184</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>11.01423316210011</v>
+      </c>
+      <c r="C231">
+        <v>0.00204</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>10.97590256426879</v>
+      </c>
+      <c r="C232">
+        <v>0.00207</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>10.83034613283281</v>
+      </c>
+      <c r="C233">
+        <v>0.0022</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>10.34514098690848</v>
+      </c>
+      <c r="C234">
+        <v>0.0027</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>10.04125158169181</v>
+      </c>
+      <c r="C235">
+        <v>0.00307</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>9.936731761644925</v>
+      </c>
+      <c r="C236">
+        <v>0.00321</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>9.854310351834172</v>
+      </c>
+      <c r="C237">
+        <v>0.00332</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>9.673052738288959</v>
+      </c>
+      <c r="C238">
+        <v>0.00359</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>9.627006950170493</v>
+      </c>
+      <c r="C239">
+        <v>0.00366</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>9.204031122005347</v>
+      </c>
+      <c r="C240">
+        <v>0.0044</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>9.145638064090761</v>
+      </c>
+      <c r="C241">
+        <v>0.00451</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>9.082365048581858</v>
+      </c>
+      <c r="C242">
+        <v>0.00464</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>9.044045371584286</v>
+      </c>
+      <c r="C243">
+        <v>0.00472</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>8.77843868778864</v>
+      </c>
+      <c r="C244">
+        <v>0.0053</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B245">
+        <v>8.417039606085508</v>
+      </c>
+      <c r="C245">
+        <v>0.00623</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B246">
+        <v>8.069581747098942</v>
+      </c>
+      <c r="C246">
+        <v>0.00728</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B247">
+        <v>8.032665783348392</v>
+      </c>
+      <c r="C247">
+        <v>0.0074</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B248">
+        <v>7.470558395301267</v>
+      </c>
+      <c r="C248">
+        <v>0.009560000000000001</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B249">
+        <v>7.405555808984324</v>
+      </c>
+      <c r="C249">
+        <v>0.009849999999999999</v>
       </c>
     </row>
   </sheetData>
